--- a/outputs-GTDB-r202/c__Negativicutes.xlsx
+++ b/outputs-GTDB-r202/c__Negativicutes.xlsx
@@ -1673,7 +1673,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>o__Acidaminococcales</t>
+          <t>o__Acidaminococcales(reject)</t>
         </is>
       </c>
     </row>
